--- a/left_eye.xlsx
+++ b/left_eye.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1784,34 +1784,91 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="H24" t="n">
+        <v>19</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>2</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2</v>
+      </c>
+      <c r="M24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
         <is>
           <t>Red</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
